--- a/biology/Botanique/Chalaze/Chalaze.xlsx
+++ b/biology/Botanique/Chalaze/Chalaze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une chalaze (du grec χάλαζα, « grêlon », par extension terme médical « kyste de la paupière[1] » ou « chalazion »[2] ; pluriel chalaza[réf. nécessaire]) est un tissu à l'intérieur des œufs d'oiseaux et de reptiles ainsi que des ovules végétaux, qui attache ou suspend le jaune d'œuf ou le nucelle au sein d'une structure plus grande.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une chalaze (du grec χάλαζα, « grêlon », par extension terme médical « kyste de la paupière » ou « chalazion » ; pluriel chalaza[réf. nécessaire]) est un tissu à l'intérieur des œufs d'oiseaux et de reptiles ainsi que des ovules végétaux, qui attache ou suspend le jaune d'œuf ou le nucelle au sein d'une structure plus grande.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Chez les végétaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chalaze est un réseau de fibres à la base des ovules d'Angiospermes qui fixe le nucelle aux téguments externes de l'ovule. Les faisceaux cribrovasculaires du funicule se ramifient au niveau du chalaze pour approvisionner l'ovule à partir de la plante mère[3].
-La chalazogamie est un mode de fécondation chez un certain nombre de familles archaïques de Spermaphytes : le tube pollinique pénètre dans l'ovule par la chalaze et non par le micropyle (porogamie, mode de fécondation le plus courant). La chalazogamie a été découverte par le botaniste Melchior Treub dans une espèce monoïque de Casuarina, et depuis été également observée chez d'autres plantes, par exemple dans le pistachier et le noyer[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chalaze est un réseau de fibres à la base des ovules d'Angiospermes qui fixe le nucelle aux téguments externes de l'ovule. Les faisceaux cribrovasculaires du funicule se ramifient au niveau du chalaze pour approvisionner l'ovule à partir de la plante mère.
+La chalazogamie est un mode de fécondation chez un certain nombre de familles archaïques de Spermaphytes : le tube pollinique pénètre dans l'ovule par la chalaze et non par le micropyle (porogamie, mode de fécondation le plus courant). La chalazogamie a été découverte par le botaniste Melchior Treub dans une espèce monoïque de Casuarina, et depuis été également observée chez d'autres plantes, par exemple dans le pistachier et le noyer.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Chez les animaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux chalazes dans les œufs d'oiseaux et de reptiles sont des cordons d'albumine fixés à la membrane coquillière interne qui maintiennent le jaune suspendu dans l'œuf et orientent l'axe antéro-postérieur de l'embryon  perpendiculairement au grand axe de la coquille (grâce à l'enroulement senestre de la chalaze à droite de l'embryon, dextre à gauche). Ce réseau de fibres tordues sur elles-mêmes en spirale est semblable à un ressort[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux chalazes dans les œufs d'oiseaux et de reptiles sont des cordons d'albumine fixés à la membrane coquillière interne qui maintiennent le jaune suspendu dans l'œuf et orientent l'axe antéro-postérieur de l'embryon  perpendiculairement au grand axe de la coquille (grâce à l'enroulement senestre de la chalaze à droite de l'embryon, dextre à gauche). Ce réseau de fibres tordues sur elles-mêmes en spirale est semblable à un ressort.
 Certains animaux, tel le Pogona viticeps, pondent des œufs qui ne possèdent pas de chalaze.
 </t>
         </is>
